--- a/public/data/ThongTinKhachHang.xlsx
+++ b/public/data/ThongTinKhachHang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\FileImportMau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinhtruong\workspace\web-htql-gd-group\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11B0C4-9A54-47C8-BEB9-5CF1DC65C550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12031AE-F588-4B82-9401-45772BD4B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{BD94F33F-19D7-4DCF-AC94-8B77877F3AA6}"/>
+    <workbookView xWindow="5550" yWindow="1650" windowWidth="28800" windowHeight="11385" xr2:uid="{BD94F33F-19D7-4DCF-AC94-8B77877F3AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,73 +69,73 @@
     <t>MST0001</t>
   </si>
   <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>Quận huyện</t>
+  </si>
+  <si>
+    <t>0909000111</t>
+  </si>
+  <si>
+    <t>0909000222</t>
+  </si>
+  <si>
+    <t>Phó phòng</t>
+  </si>
+  <si>
+    <t>Các trường tên cơ quan, mã số thuế , tỉnh thành, quận huyện , họ và tên là bắt buộc</t>
+  </si>
+  <si>
+    <t>CƠ QUAN</t>
+  </si>
+  <si>
+    <t>CÁN BỘ</t>
+  </si>
+  <si>
+    <t>Trần Văn A</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>Lê Thị C</t>
+  </si>
+  <si>
+    <t>0909000999</t>
+  </si>
+  <si>
+    <t>tva@gmail.com</t>
+  </si>
+  <si>
+    <t>Giám đốc trung tâm</t>
+  </si>
+  <si>
+    <t>nvb@gmail.com</t>
+  </si>
+  <si>
+    <t>ltc@gmail.com</t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>nữ</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>THÔNG TIN KHÁCH HÀNG</t>
+  </si>
+  <si>
+    <t>Quận ninh kiều</t>
+  </si>
+  <si>
     <t>Tỉnh cần thơ</t>
-  </si>
-  <si>
-    <t>Trưởng phòng</t>
-  </si>
-  <si>
-    <t>Quận huyện</t>
-  </si>
-  <si>
-    <t>Quận ninh kiều</t>
-  </si>
-  <si>
-    <t>0909000111</t>
-  </si>
-  <si>
-    <t>0909000222</t>
-  </si>
-  <si>
-    <t>Phó phòng</t>
-  </si>
-  <si>
-    <t>Các trường tên cơ quan, mã số thuế , tỉnh thành, quận huyện , họ và tên là bắt buộc</t>
-  </si>
-  <si>
-    <t>CƠ QUAN</t>
-  </si>
-  <si>
-    <t>CÁN BỘ</t>
-  </si>
-  <si>
-    <t>Trần Văn A</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>Lê Thị C</t>
-  </si>
-  <si>
-    <t>0909000999</t>
-  </si>
-  <si>
-    <t>tva@gmail.com</t>
-  </si>
-  <si>
-    <t>Giám đốc trung tâm</t>
-  </si>
-  <si>
-    <t>nvb@gmail.com</t>
-  </si>
-  <si>
-    <t>ltc@gmail.com</t>
-  </si>
-  <si>
-    <t>nam</t>
-  </si>
-  <si>
-    <t>nữ</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>THÔNG TIN KHÁCH HÀNG</t>
   </si>
 </sst>
 </file>
@@ -319,9 +319,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,6 +334,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,21 +359,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,60 +679,60 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="40.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="27" style="16" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="45.42578125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="49" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="40.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="27" style="15" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="45.42578125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="49" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:12" s="15" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+    <row r="4" spans="1:12" s="14" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>4</v>
@@ -761,12 +761,12 @@
         <v>8</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="8">
         <v>8</v>
@@ -798,7 +798,7 @@
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -808,30 +808,30 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
       <c r="B7" s="4"/>
@@ -839,23 +839,23 @@
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>3</v>
       </c>
       <c r="B8" s="4"/>
@@ -863,23 +863,23 @@
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>

--- a/public/data/ThongTinKhachHang.xlsx
+++ b/public/data/ThongTinKhachHang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinhtruong\workspace\web-htql-gd-group\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12031AE-F588-4B82-9401-45772BD4B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5F4011-B38F-4BB4-B8A7-36685061B06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="1650" windowWidth="28800" windowHeight="11385" xr2:uid="{BD94F33F-19D7-4DCF-AC94-8B77877F3AA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{BD94F33F-19D7-4DCF-AC94-8B77877F3AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Chức vụ</t>
   </si>
   <si>
-    <t>Công ty TNHH Số 1</t>
-  </si>
-  <si>
     <t>MST0001</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Tỉnh cần thơ</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Giải pháp Công nghệ GD Việt Nam</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
       <c r="F3" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>4</v>
@@ -761,12 +761,12 @@
         <v>8</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="8">
         <v>8</v>
@@ -802,31 +802,31 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="L6" s="2"/>
     </row>
@@ -839,19 +839,19 @@
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -863,19 +863,19 @@
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/data/ThongTinKhachHang.xlsx
+++ b/public/data/ThongTinKhachHang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinhtruong\workspace\web-htql-gd-group\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5F4011-B38F-4BB4-B8A7-36685061B06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEDD8BC-5F1B-4371-89D4-A3CFEF616105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{BD94F33F-19D7-4DCF-AC94-8B77877F3AA6}"/>
   </bookViews>
@@ -129,13 +129,13 @@
     <t>THÔNG TIN KHÁCH HÀNG</t>
   </si>
   <si>
-    <t>Quận ninh kiều</t>
-  </si>
-  <si>
-    <t>Tỉnh cần thơ</t>
-  </si>
-  <si>
     <t>Công ty Cổ phần Giải pháp Công nghệ GD Việt Nam</t>
+  </si>
+  <si>
+    <t>Quận Ninh Kiều</t>
+  </si>
+  <si>
+    <t>Tỉnh Cần Thơ</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,16 +802,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>18</v>

--- a/public/data/ThongTinKhachHang.xlsx
+++ b/public/data/ThongTinKhachHang.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinhtruong\workspace\web-htql-gd-group\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinhtruong\workspace\web-gdvn-hethongquanly\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEDD8BC-5F1B-4371-89D4-A3CFEF616105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59BD902-15BF-462E-BC34-5FEBE6FF019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{BD94F33F-19D7-4DCF-AC94-8B77877F3AA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -63,24 +63,9 @@
     <t>Chức vụ</t>
   </si>
   <si>
-    <t>MST0001</t>
-  </si>
-  <si>
-    <t>Trưởng phòng</t>
-  </si>
-  <si>
     <t>Quận huyện</t>
   </si>
   <si>
-    <t>0909000111</t>
-  </si>
-  <si>
-    <t>0909000222</t>
-  </si>
-  <si>
-    <t>Phó phòng</t>
-  </si>
-  <si>
     <t>Các trường tên cơ quan, mã số thuế , tỉnh thành, quận huyện , họ và tên là bắt buộc</t>
   </si>
   <si>
@@ -90,52 +75,46 @@
     <t>CÁN BỘ</t>
   </si>
   <si>
-    <t>Trần Văn A</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>Lê Thị C</t>
-  </si>
-  <si>
-    <t>0909000999</t>
-  </si>
-  <si>
-    <t>tva@gmail.com</t>
-  </si>
-  <si>
-    <t>Giám đốc trung tâm</t>
-  </si>
-  <si>
-    <t>nvb@gmail.com</t>
-  </si>
-  <si>
-    <t>ltc@gmail.com</t>
-  </si>
-  <si>
-    <t>nam</t>
-  </si>
-  <si>
-    <t>nữ</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>THÔNG TIN KHÁCH HÀNG</t>
   </si>
   <si>
-    <t>Công ty Cổ phần Giải pháp Công nghệ GD Việt Nam</t>
-  </si>
-  <si>
-    <t>Quận Ninh Kiều</t>
-  </si>
-  <si>
-    <t>Tỉnh Cần Thơ</t>
+    <t>Phường xã</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Công ty A</t>
+  </si>
+  <si>
+    <t>MT00001</t>
+  </si>
+  <si>
+    <t>Trà Vinh</t>
+  </si>
+  <si>
+    <t>Càng Long</t>
+  </si>
+  <si>
+    <t>Bình Phú</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>0988371388</t>
+  </si>
+  <si>
+    <t>it@gmail.com</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
   </si>
 </sst>
 </file>
@@ -175,16 +154,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,27 +261,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,12 +283,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,14 +310,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,232 +637,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA987291-4EE6-4FC6-B1B7-326C68B1DB13}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="40.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="27" style="15" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="45.42578125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="49" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="40.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="8" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="27" style="8" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="45.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="49" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+    <row r="1" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="20" t="s">
+      <c r="J5" s="3">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" s="14" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>3</v>
-      </c>
-      <c r="E5" s="8">
-        <v>4</v>
-      </c>
-      <c r="F5" s="8">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8">
-        <v>6</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="8">
-        <v>8</v>
-      </c>
-      <c r="J5" s="8">
-        <v>9</v>
-      </c>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" xr:uid="{97DB11EE-57C5-4664-8749-8C17A26914B7}"/>
-    <hyperlink ref="I8" r:id="rId2" xr:uid="{FF65BC78-D305-4236-AB8A-E042ED422537}"/>
-    <hyperlink ref="I6" r:id="rId3" xr:uid="{2B5F0128-E9F3-4A1C-A9F8-346265E85864}"/>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{72837B21-E84E-470E-B3BD-D8DF96066E9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>